--- a/Arquivos/Resultados/Resultados RVND.xlsx
+++ b/Arquivos/Resultados/Resultados RVND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885"/>
+    <workbookView windowWidth="13725" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <t>Resultados RVND com k = n/4</t>
   </si>
@@ -73,10 +73,10 @@
     <t>dantzig42</t>
   </si>
   <si>
+    <t>eil51</t>
+  </si>
+  <si>
     <t>eil76</t>
-  </si>
-  <si>
-    <t>eil51</t>
   </si>
   <si>
     <t>eil101</t>
@@ -225,22 +225,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -262,12 +255,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,8 +276,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +301,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,21 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -328,9 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,18 +367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,7 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,36 +397,79 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -420,19 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +515,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,121 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +622,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -634,15 +653,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,17 +685,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -725,174 +724,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="B2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1234,17 +1251,17 @@
   </cols>
   <sheetData>
     <row r="2" ht="15.75" spans="2:12">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2"/>
@@ -1279,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="2:12">
+    <row r="4" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1306,7 @@
       <c r="D4" s="5">
         <v>609.06</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="6">
@@ -1298,7 +1315,7 @@
       <c r="H4" s="7">
         <v>1286.16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="6">
@@ -1309,64 +1326,64 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:12">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>1239</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>24</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>3231</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>36</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>6348</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:12">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>133</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>5348</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>266</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>11954</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>399</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="10">
         <v>18238</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:12">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1393,7 @@
       <c r="D7" s="5">
         <v>275</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6">
@@ -1385,7 +1402,7 @@
       <c r="H7" s="7">
         <v>581</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="6">
@@ -1395,7 +1412,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:12">
+    <row r="8" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1422,7 @@
       <c r="D8" s="5">
         <v>319</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="6">
@@ -1414,7 +1431,7 @@
       <c r="H8" s="7">
         <v>692</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="6">
@@ -1424,7 +1441,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:12">
+    <row r="9" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1451,7 @@
       <c r="D9" s="5">
         <v>480.48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="6">
@@ -1443,7 +1460,7 @@
       <c r="H9" s="7">
         <v>1766.5</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="6">
@@ -1453,7 +1470,7 @@
         <v>3910.64</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:12">
+    <row r="10" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1480,7 @@
       <c r="D10" s="5">
         <v>11667.28</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6">
@@ -1472,7 +1489,7 @@
       <c r="H10" s="7">
         <v>27397.27</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="6">
@@ -1483,64 +1500,64 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:12">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>4129</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>29</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>6805</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>43</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="10">
         <v>10285</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="2:12">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <v>45</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>470</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>90</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>950</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>135</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="10">
         <v>1460</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="2:12">
+    <row r="13" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1567,7 @@
       <c r="D13" s="5">
         <v>224.88</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6">
@@ -1559,7 +1576,7 @@
       <c r="H13" s="7">
         <v>1140.19</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="6">
@@ -1569,7 +1586,7 @@
         <v>1637.31</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="2:12">
+    <row r="14" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +1596,7 @@
       <c r="D14" s="5">
         <v>1178.35</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="6">
@@ -1588,7 +1605,7 @@
       <c r="H14" s="7">
         <v>2541.67</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="6">
@@ -1598,7 +1615,7 @@
         <v>3908.11</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:12">
+    <row r="15" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1608,7 +1625,7 @@
       <c r="D15" s="5">
         <v>1284.47</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="6">
@@ -1617,7 +1634,7 @@
       <c r="H15" s="7">
         <v>2907.65</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="6">
@@ -1627,7 +1644,7 @@
         <v>4684.6</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:12">
+    <row r="16" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1654,7 @@
       <c r="D16" s="5">
         <v>99</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="6">
@@ -1646,7 +1663,7 @@
       <c r="H16" s="7">
         <v>239</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="6">
@@ -1656,18 +1673,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:12">
-      <c r="B17" s="4" t="s">
+    <row r="17" s="1" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="12">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13">
+        <v>77.04</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="5">
-        <v>97.21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G17" s="6">
         <v>25</v>
@@ -1675,8 +1692,8 @@
       <c r="H17" s="7">
         <v>168.63</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>20</v>
+      <c r="J17" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="K17" s="6">
         <v>38</v>
@@ -1685,18 +1702,18 @@
         <v>281.61</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="2:12">
+    <row r="18" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5">
-        <v>138.13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>97.21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G18" s="6">
         <v>38</v>
@@ -1704,8 +1721,8 @@
       <c r="H18" s="7">
         <v>221.22</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>19</v>
+      <c r="J18" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="K18" s="6">
         <v>57</v>
@@ -1714,17 +1731,17 @@
         <v>340.02</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="2:12">
+    <row r="19" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5">
-        <v>145</v>
-      </c>
-      <c r="F19" s="3" t="s">
+        <v>138.13</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="6">
@@ -1733,7 +1750,7 @@
       <c r="H19" s="7">
         <v>286.97</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="6">
@@ -1743,17 +1760,17 @@
         <v>438.75</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="2:12">
+    <row r="20" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5">
-        <v>540.34</v>
-      </c>
-      <c r="F20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="6">
@@ -1762,7 +1779,7 @@
       <c r="H20" s="7">
         <v>317</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="6">
@@ -1772,17 +1789,17 @@
         <v>599</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="2:12">
+    <row r="21" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5">
-        <v>154</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>540.34</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="6">
@@ -1791,7 +1808,7 @@
       <c r="H21" s="7">
         <v>1100.26</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="6">
@@ -1801,17 +1818,17 @@
         <v>1640.39</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="2:12">
+    <row r="22" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="5">
-        <v>181</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="6">
@@ -1820,7 +1837,7 @@
       <c r="H22" s="7">
         <v>359</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="6">
@@ -1830,17 +1847,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="2:12">
+    <row r="23" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>162</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="6">
@@ -1849,7 +1866,7 @@
       <c r="H23" s="7">
         <v>711</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="6">
@@ -1859,17 +1876,17 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="2:12">
+    <row r="24" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D24" s="5">
-        <v>558</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="6">
@@ -1878,7 +1895,7 @@
       <c r="H24" s="7">
         <v>413</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="6">
@@ -1888,17 +1905,17 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="2:12">
+    <row r="25" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5">
-        <v>9332.77</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="6">
@@ -1907,7 +1924,7 @@
       <c r="H25" s="7">
         <v>1705</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="6">
@@ -1918,74 +1935,74 @@
       </c>
     </row>
     <row r="26" ht="15.75" spans="2:12">
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1349</v>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9">
+        <v>9332.77</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>48</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="10">
         <v>20435.51</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>72</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="10">
         <v>36699.98</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="2:12">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3454</v>
+      <c r="D27" s="9">
+        <v>1349</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>60</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="10">
         <v>3091</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>90</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="10">
         <v>4537</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="2:12">
+    <row r="28" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5">
-        <v>4649.79</v>
-      </c>
-      <c r="F28" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="6">
@@ -1994,7 +2011,7 @@
       <c r="H28" s="7">
         <v>5511</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="6">
@@ -2004,17 +2021,17 @@
         <v>7612</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="2:12">
+    <row r="29" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5">
-        <v>6400.64</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>4649.79</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="6">
@@ -2023,7 +2040,7 @@
       <c r="H29" s="7">
         <v>10075.59</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K29" s="6">
@@ -2033,17 +2050,17 @@
         <v>14544.38</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="2:12">
+    <row r="30" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5">
-        <v>6767.07</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>6400.64</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="6">
@@ -2052,7 +2069,7 @@
       <c r="H30" s="7">
         <v>14013.34</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K30" s="6">
@@ -2062,17 +2079,17 @@
         <v>19944.47</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="2:12">
+    <row r="31" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D31" s="5">
-        <v>5393.56</v>
-      </c>
-      <c r="F31" s="3" t="s">
+        <v>6767.07</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="6">
@@ -2081,7 +2098,7 @@
       <c r="H31" s="7">
         <v>12922.46</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="6">
@@ -2091,17 +2108,17 @@
         <v>20463.14</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="2:12">
+    <row r="32" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5">
-        <v>5003.2</v>
-      </c>
-      <c r="F32" s="3" t="s">
+        <v>5393.56</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="6">
@@ -2110,7 +2127,7 @@
       <c r="H32" s="7">
         <v>10708.33</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="6">
@@ -2120,17 +2137,17 @@
         <v>15454.66</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="2:12">
+    <row r="33" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5">
-        <v>6359.99</v>
-      </c>
-      <c r="F33" s="3" t="s">
+        <v>5003.2</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="6">
@@ -2139,7 +2156,7 @@
       <c r="H33" s="7">
         <v>11076.35</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K33" s="6">
@@ -2149,17 +2166,17 @@
         <v>16688.08</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="2:12">
+    <row r="34" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5">
-        <v>4236.4</v>
-      </c>
-      <c r="F34" s="3" t="s">
+        <v>6359.99</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="6">
@@ -2168,7 +2185,7 @@
       <c r="H34" s="7">
         <v>14033.62</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K34" s="6">
@@ -2178,17 +2195,17 @@
         <v>20173.58</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="2:12">
+    <row r="35" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4">
         <v>25</v>
       </c>
       <c r="D35" s="5">
-        <v>5220.64</v>
-      </c>
-      <c r="F35" s="3" t="s">
+        <v>4236.4</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="6">
@@ -2197,7 +2214,7 @@
       <c r="H35" s="7">
         <v>8632.68</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K35" s="6">
@@ -2207,17 +2224,17 @@
         <v>13951.85</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="2:12">
+    <row r="36" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>25</v>
       </c>
       <c r="D36" s="5">
-        <v>3894.47</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>5220.64</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="6">
@@ -2226,7 +2243,7 @@
       <c r="H36" s="7">
         <v>10204.13</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K36" s="6">
@@ -2236,17 +2253,17 @@
         <v>14779.43</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="2:12">
+    <row r="37" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5">
-        <v>2002.98</v>
-      </c>
-      <c r="F37" s="3" t="s">
+        <v>3894.47</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="6">
@@ -2255,7 +2272,7 @@
       <c r="H37" s="7">
         <v>9060.14</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="6">
@@ -2265,17 +2282,17 @@
         <v>14943.31</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="2:12">
+    <row r="38" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D38" s="5">
-        <v>8571.87</v>
-      </c>
-      <c r="F38" s="3" t="s">
+        <v>2002.98</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="6">
@@ -2284,7 +2301,7 @@
       <c r="H38" s="7">
         <v>5425.48</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="K38" s="6">
@@ -2294,17 +2311,17 @@
         <v>8397.36</v>
       </c>
     </row>
-    <row r="39" ht="15.75" spans="2:12">
+    <row r="39" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5">
-        <v>12540.17</v>
-      </c>
-      <c r="F39" s="3" t="s">
+        <v>8571.87</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="6">
@@ -2313,7 +2330,7 @@
       <c r="H39" s="7">
         <v>18685.55</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="6" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="6">
@@ -2324,74 +2341,74 @@
       </c>
     </row>
     <row r="40" ht="15.75" spans="2:12">
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4">
-        <v>140</v>
-      </c>
-      <c r="D40" s="5">
-        <v>670</v>
+      <c r="B40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="8">
+        <v>344</v>
+      </c>
+      <c r="D40" s="9">
+        <v>12540.17</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="3">
         <v>689</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="10">
         <v>26839.14</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="3">
         <v>1034</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="10">
         <v>42522.62</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="2:12">
-      <c r="B41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5">
-        <v>21496.25</v>
+      <c r="B41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="8">
+        <v>140</v>
+      </c>
+      <c r="D41" s="9">
+        <v>670</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="3">
         <v>280</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="10">
         <v>1236</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="3">
         <v>420</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="10">
         <v>2028</v>
       </c>
     </row>
-    <row r="42" ht="15.75" spans="2:12">
+    <row r="42" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D42" s="5">
-        <v>7038.06</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>21496.25</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="6">
@@ -2400,7 +2417,7 @@
       <c r="H42" s="7">
         <v>42006.67</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="6">
@@ -2410,17 +2427,17 @@
         <v>61124.81</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="2:12">
+    <row r="43" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D43" s="5">
-        <v>10080.05</v>
-      </c>
-      <c r="F43" s="3" t="s">
+        <v>7038.06</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="6">
@@ -2429,7 +2446,7 @@
       <c r="H43" s="7">
         <v>15092.28</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="6">
@@ -2439,17 +2456,17 @@
         <v>30429.58</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="2:12">
+    <row r="44" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="5">
-        <v>20714.89</v>
-      </c>
-      <c r="F44" s="3" t="s">
+        <v>10080.05</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="6">
@@ -2458,7 +2475,7 @@
       <c r="H44" s="7">
         <v>22935.61</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K44" s="6">
@@ -2468,17 +2485,17 @@
         <v>36650.4</v>
       </c>
     </row>
-    <row r="45" ht="15.75" spans="2:12">
+    <row r="45" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="5">
-        <v>10742.86</v>
-      </c>
-      <c r="F45" s="3" t="s">
+        <v>20714.89</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="6">
@@ -2487,7 +2504,7 @@
       <c r="H45" s="7">
         <v>45462.43</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="6" t="s">
         <v>47</v>
       </c>
       <c r="K45" s="6">
@@ -2497,17 +2514,17 @@
         <v>68368.27</v>
       </c>
     </row>
-    <row r="46" ht="15.75" spans="2:12">
+    <row r="46" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="5">
-        <v>14780.62</v>
-      </c>
-      <c r="F46" s="3" t="s">
+        <v>10742.86</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="6">
@@ -2516,7 +2533,7 @@
       <c r="H46" s="7">
         <v>25880.31</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="6" t="s">
         <v>48</v>
       </c>
       <c r="K46" s="6">
@@ -2526,17 +2543,17 @@
         <v>40210.94</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="2:12">
+    <row r="47" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="4">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D47" s="5">
-        <v>21374.46</v>
-      </c>
-      <c r="F47" s="3" t="s">
+        <v>14780.62</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="6">
@@ -2545,7 +2562,7 @@
       <c r="H47" s="7">
         <v>32440.64</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="6" t="s">
         <v>49</v>
       </c>
       <c r="K47" s="6">
@@ -2555,17 +2572,17 @@
         <v>46089.98</v>
       </c>
     </row>
-    <row r="48" ht="15.75" spans="2:12">
+    <row r="48" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="4">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5">
-        <v>7800</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>21374.46</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="6">
@@ -2574,7 +2591,7 @@
       <c r="H48" s="7">
         <v>41301.91</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="K48" s="6">
@@ -2585,132 +2602,132 @@
       </c>
     </row>
     <row r="49" ht="15.75" spans="2:12">
-      <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4">
-        <v>74</v>
-      </c>
-      <c r="D49" s="5">
-        <v>10579.89</v>
+      <c r="B49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="8">
+        <v>66</v>
+      </c>
+      <c r="D49" s="9">
+        <v>7800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="3">
         <v>132</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="10">
         <v>21568.72</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="3">
         <v>198</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="10">
         <v>33880.01</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="2:12">
-      <c r="B50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="4">
-        <v>109</v>
-      </c>
-      <c r="D50" s="5">
-        <v>19972.3</v>
+      <c r="B50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="8">
+        <v>74</v>
+      </c>
+      <c r="D50" s="9">
+        <v>10579.89</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="3">
         <v>149</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="10">
         <v>23845.29</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="3">
         <v>224</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="10">
         <v>34501.38</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="2:12">
-      <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4">
-        <v>250</v>
-      </c>
-      <c r="D51" s="5">
-        <v>58420.15</v>
+      <c r="B51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="8">
+        <v>109</v>
+      </c>
+      <c r="D51" s="9">
+        <v>19972.3</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>219</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="10">
         <v>36727.88</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="3">
         <v>329</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="10">
         <v>61894.86</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="2:12">
-      <c r="B52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="4">
-        <v>24</v>
-      </c>
-      <c r="D52" s="5">
-        <v>255.03</v>
+      <c r="B52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="8">
+        <v>250</v>
+      </c>
+      <c r="D52" s="9">
+        <v>58420.15</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>501</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="10">
         <v>117296.16</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="3">
         <v>751</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="10">
         <v>184532.11</v>
       </c>
     </row>
-    <row r="53" ht="15.75" spans="2:12">
+    <row r="53" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D53" s="5">
-        <v>529.26</v>
-      </c>
-      <c r="F53" s="3" t="s">
+        <v>255.03</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="6">
@@ -2719,7 +2736,7 @@
       <c r="H53" s="7">
         <v>557.86</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="6" t="s">
         <v>55</v>
       </c>
       <c r="K53" s="6">
@@ -2729,17 +2746,17 @@
         <v>864.95</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="2:12">
+    <row r="54" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D54" s="5">
-        <v>1631</v>
-      </c>
-      <c r="F54" s="3" t="s">
+        <v>529.26</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="6">
@@ -2748,7 +2765,7 @@
       <c r="H54" s="7">
         <v>1109.68</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="6" t="s">
         <v>56</v>
       </c>
       <c r="K54" s="6">
@@ -2759,161 +2776,161 @@
       </c>
     </row>
     <row r="55" ht="15.75" spans="2:12">
-      <c r="B55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="4">
-        <v>195</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2143.87</v>
+      <c r="B55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="8">
+        <v>143</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1631</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="3">
         <v>287</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="10">
         <v>3239.8</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="3">
         <v>431</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="10">
         <v>5042.6</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="2:12">
-      <c r="B56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="4">
-        <v>43</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4862</v>
+      <c r="B56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="8">
+        <v>195</v>
+      </c>
+      <c r="D56" s="9">
+        <v>2143.87</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="3">
         <v>391</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="10">
         <v>4281.01</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="3">
         <v>587</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="10">
         <v>6681.59</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="2:12">
-      <c r="B57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="4">
-        <v>133</v>
-      </c>
-      <c r="D57" s="5">
-        <v>11355</v>
+      <c r="B57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="8">
+        <v>43</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4862</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="3">
         <v>87</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="10">
         <v>10179</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="3">
         <v>131</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="10">
         <v>15733</v>
       </c>
     </row>
     <row r="58" ht="15.75" spans="2:12">
-      <c r="B58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="4">
-        <v>258</v>
-      </c>
-      <c r="D58" s="5">
-        <v>22289</v>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8">
+        <v>133</v>
+      </c>
+      <c r="D58" s="9">
+        <v>11355</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="3">
         <v>267</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="10">
         <v>22763</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="3">
         <v>401</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="10">
         <v>35278</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="2:12">
-      <c r="B59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="4">
-        <v>17</v>
-      </c>
-      <c r="D59" s="5">
-        <v>126.31</v>
+      <c r="B59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="8">
+        <v>258</v>
+      </c>
+      <c r="D59" s="9">
+        <v>22289</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="3">
         <v>516</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="10">
         <v>45504</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="3">
         <v>774</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="10">
         <v>69819</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="2:12">
+    <row r="60" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B60" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D60" s="5">
-        <v>146</v>
-      </c>
-      <c r="F60" s="3" t="s">
+        <v>126.31</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G60" s="6">
@@ -2922,7 +2939,7 @@
       <c r="H60" s="7">
         <v>274.86</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="6" t="s">
         <v>62</v>
       </c>
       <c r="K60" s="6">
@@ -2932,17 +2949,17 @@
         <v>440.64</v>
       </c>
     </row>
-    <row r="61" ht="15.75" spans="2:12">
+    <row r="61" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="4">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D61" s="5">
-        <v>27500</v>
-      </c>
-      <c r="F61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G61" s="6">
@@ -2951,7 +2968,7 @@
       <c r="H61" s="7">
         <v>425</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="6" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="6">
@@ -2962,74 +2979,74 @@
       </c>
     </row>
     <row r="62" ht="15.75" spans="2:12">
-      <c r="B62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="8">
         <v>56</v>
       </c>
-      <c r="D62" s="5">
-        <v>895.66</v>
+      <c r="D62" s="9">
+        <v>27500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="3">
         <v>112</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="10">
         <v>55500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="3">
         <v>168</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="10">
         <v>85571.07</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="2:12">
-      <c r="B63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="4">
-        <v>4</v>
-      </c>
-      <c r="D63" s="5">
-        <v>751.06</v>
+      <c r="B63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="8">
+        <v>56</v>
+      </c>
+      <c r="D63" s="9">
+        <v>895.66</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="3">
         <v>112</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="10">
         <v>1760.09</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="3">
         <v>168</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="10">
         <v>2614.58</v>
       </c>
     </row>
-    <row r="64" ht="15.75" spans="2:12">
+    <row r="64" s="1" customFormat="1" ht="15.75" spans="2:12">
       <c r="B64" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="5">
-        <v>456.58</v>
-      </c>
-      <c r="F64" s="3" t="s">
+        <v>751.06</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G64" s="6">
@@ -3038,7 +3055,7 @@
       <c r="H64" s="7">
         <v>1981.71</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="6" t="s">
         <v>66</v>
       </c>
       <c r="K64" s="6">
@@ -3048,8 +3065,17 @@
         <v>2741.1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="6:12">
-      <c r="F65" s="3" t="s">
+    <row r="65" s="1" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="4">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5">
+        <v>456.58</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G65" s="6">
@@ -3058,7 +3084,7 @@
       <c r="H65" s="7">
         <v>2062.92</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K65" s="6">
